--- a/data/人物设定/娜娜莉属性表格.xlsx
+++ b/data/人物设定/娜娜莉属性表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/eraMyGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86233002-57CD-4E85-B028-08D8913AFF5D}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649CD4A9-2C45-4353-BFD6-D7E53FA5681A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
@@ -26,8 +26,63 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>霍震霖</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{BD96D90E-9E83-473B-B89E-D8FE77357804}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="DengXian"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>霍震霖</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="DengXian"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>没有就填空</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专业（没有就填空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS：体力、敏捷、意志会受年龄影响得到修正，萝莉角色的各项标准值不为100，应适当降低。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,37 +147,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表示聪明程度，标准值为100，影响技能学习。可通过学习技能和技能等级提升增加</t>
-  </si>
-  <si>
     <t>魅力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影响好感度加成，分为基础值和调整值，标准值100。可以再15岁前增加，可通过特殊手段在十五岁后增加</t>
-  </si>
-  <si>
     <t>体质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影响行动次数，标准值100，可通过练习和特质增加，决定体力</t>
-  </si>
-  <si>
     <t>敏捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标准值100，用于修正体力消耗和技术，可通过啪啪啪和特性增加</t>
-  </si>
-  <si>
     <t>意志力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标准值100，用于对抗催眠、洗脑、交涉等行动，可通过练习和特性增加，影响精力</t>
-  </si>
-  <si>
     <t>嘴敏感度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,18 +305,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认0，负数代表M倾向及程度，正数代表S倾向及程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始露出快感经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认0，通过角色在露出行为中获得高潮增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,14 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度（15~20mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳孔直径（8~15mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,50 +328,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度（10~40mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径（10~40mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径（3~9mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容积（300~500ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容积（默认5ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径（9~18mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容积（500~800ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳房大小
-(胸围单位mm,0~49为AAA,50~99为AA,100~124为A,以类推每个等级+25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阴唇颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 直径
-(萝莉10mm,成年20~30mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度
-(萝莉40~70mm,成人70~120mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,12 +370,61 @@
 适应性强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PS：体力、敏捷、意志会受年龄影响得到修正，萝莉角色的各项标准值不为100，应适当降低。
+目前约定自然情况下，属性值的人类极限为200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服从度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淫乱度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳房大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳孔直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +489,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -490,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,19 +571,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -542,14 +586,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -623,35 +716,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42F023CE-6905-4D4B-9AF4-A463F7E10520}" name="Table2" displayName="Table2" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6" xr:uid="{42F023CE-6905-4D4B-9AF4-A463F7E10520}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42F023CE-6905-4D4B-9AF4-A463F7E10520}" name="Table2" displayName="Table2" ref="C1:C6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="C1:C6" xr:uid="{42F023CE-6905-4D4B-9AF4-A463F7E10520}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C53F85C9-8085-4EA0-A379-E19D69C0BC16}" name="身高"/>
+    <tableColumn id="1" xr3:uid="{C53F85C9-8085-4EA0-A379-E19D69C0BC16}" name="身高" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6DF4246-9FFC-4D11-996D-EEE0C847E6C3}" name="Table3" displayName="Table3" ref="C1:C6" totalsRowShown="0">
-  <autoFilter ref="C1:C6" xr:uid="{F6DF4246-9FFC-4D11-996D-EEE0C847E6C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6DF4246-9FFC-4D11-996D-EEE0C847E6C3}" name="Table3" displayName="Table3" ref="E1:E6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="E1:E6" xr:uid="{F6DF4246-9FFC-4D11-996D-EEE0C847E6C3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4264CC27-FBF8-4176-96FF-51D70DF5A422}" name="身材"/>
+    <tableColumn id="1" xr3:uid="{4264CC27-FBF8-4176-96FF-51D70DF5A422}" name="身材" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{424F8D5C-615E-417A-BF67-59068FBAF304}" name="Table4" displayName="Table4" ref="E1:E3" totalsRowShown="0">
-  <autoFilter ref="E1:E3" xr:uid="{424F8D5C-615E-417A-BF67-59068FBAF304}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{424F8D5C-615E-417A-BF67-59068FBAF304}" name="Table4" displayName="Table4" ref="G1:G3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G1:G3" xr:uid="{424F8D5C-615E-417A-BF67-59068FBAF304}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{58A2F6C2-6F28-4EF6-AE91-B4F6DD457076}" name="是否泌乳？"/>
+    <tableColumn id="1" xr3:uid="{58A2F6C2-6F28-4EF6-AE91-B4F6DD457076}" name="是否泌乳？" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A9ACBA4-D078-4036-993E-D82B0E426DDE}" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A3" xr:uid="{5A9ACBA4-D078-4036-993E-D82B0E426DDE}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F3BFDEA1-04CC-474F-BBAB-EAD5D4566289}" name="专业" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:L69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -975,7 +1074,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -986,7 +1085,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1004,18 +1103,18 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.45" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>45074</v>
@@ -1024,53 +1123,51 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>200</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>130</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1079,22 +1176,20 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
+      <c r="A8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>130</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>110</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1103,22 +1198,20 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>110</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>120</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1127,22 +1220,20 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7">
+        <v>120</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>100</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1151,433 +1242,439 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="10"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:12">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="13">
+      <c r="A36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="11">
         <v>1</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>29</v>
+      <c r="C36" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="13">
+        <v>23</v>
+      </c>
+      <c r="E36" s="7">
         <v>0</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="1"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="13">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>29</v>
+      <c r="A38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="7">
+        <v>23</v>
+      </c>
+      <c r="E38" s="10">
         <v>0</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="7">
-        <v>16</v>
+      <c r="F38" s="10"/>
+      <c r="G38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="7">
-        <v>9</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="13">
+      <c r="A40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="10">
         <v>3</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>29</v>
+      <c r="C40" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="13">
+        <v>23</v>
+      </c>
+      <c r="E40" s="7">
         <v>0</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H40" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J40" s="7">
-        <v>15</v>
-      </c>
-      <c r="K40" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="13">
+      <c r="A42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="10">
         <v>3</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>29</v>
+      <c r="C42" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="7">
+        <v>23</v>
+      </c>
+      <c r="E42" s="10">
         <v>0</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="7" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="7">
-        <v>6</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="7">
+        <v>15</v>
+      </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="13">
-        <v>2</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>29</v>
+      <c r="A44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="10">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="13">
+        <v>23</v>
+      </c>
+      <c r="E44" s="7">
         <v>0</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" s="7">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="1"/>
@@ -1585,308 +1682,329 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>29</v>
+      <c r="A46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="7">
+        <v>23</v>
+      </c>
+      <c r="E46" s="10">
         <v>0</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="6" t="s">
-        <v>83</v>
+      <c r="F46" s="10"/>
+      <c r="G46" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="H46" s="7">
-        <v>75</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J46" s="7">
-        <v>15</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="13">
-        <v>2</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>29</v>
+      <c r="A48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="13">
+        <v>23</v>
+      </c>
+      <c r="E48" s="7">
         <v>0</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="7" t="s">
-        <v>77</v>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="H48" s="7">
-        <v>5</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="11"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48" s="7">
+        <v>15</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="13">
-        <v>3</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="B50" s="10">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D50" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="7">
+        <v>23</v>
+      </c>
+      <c r="E50" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H50" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="11"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+    <row r="51" spans="1:12">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="13">
-        <v>1</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>29</v>
+    <row r="52" spans="1:12">
+      <c r="A52" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="10">
+        <v>3</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="13">
+        <v>23</v>
+      </c>
+      <c r="E52" s="7">
         <v>0</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H52" s="7">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="11"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+    <row r="53" spans="1:12">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7">
+    <row r="54" spans="1:12">
+      <c r="A54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="7">
+        <v>600</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7">
         <v>-40</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="11">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:11">
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="7:7">
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="7:7">
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="7:7">
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="7:7">
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="7:7">
-      <c r="G69" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="H48:H49"/>
+  <mergeCells count="130">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B60:F61"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B14:F15"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="H52:H53"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="I42:I43"/>
     <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L40:L41"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J38:J39"/>
     <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D57"/>
-    <mergeCell ref="E56:F57"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="B20:F21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:F23"/>
@@ -1896,122 +2014,122 @@
     <mergeCell ref="B26:F27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:F29"/>
-    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:F31"/>
     <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:F51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:F47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A16:F17"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:F37"/>
     <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G18:G31"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="G20:G33"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A54:F55"/>
     <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A56:F57"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D0F5056-17B9-432E-8156-687BAD7EBB30}">
-          <x14:formula1>
-            <xm:f>选项参考表!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B26:F27</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D918A494-5D06-4DA0-A955-175E7687261B}">
           <x14:formula1>
             <xm:f>选项参考表!$C$2:$C$6</xm:f>
           </x14:formula1>
           <xm:sqref>B28:F29</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D918A494-5D06-4DA0-A955-175E7687261B}">
+          <x14:formula1>
+            <xm:f>选项参考表!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30:F31</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{097AFDE8-ABA2-4D6E-9A7B-39F072C74955}">
           <x14:formula1>
-            <xm:f>选项参考表!$E$2:$E$3</xm:f>
+            <xm:f>选项参考表!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K36:K37 J36</xm:sqref>
+          <xm:sqref>K38:K39 J38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5B92E84-5002-466C-9E79-9341CF279A49}">
+          <x14:formula1>
+            <xm:f>选项参考表!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2031,7 +2149,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2082,150 +2200,150 @@
       <c r="C10" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="A30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2365,81 +2483,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF9D55C-1BD8-48C9-B18D-BB187295C5A9}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/人物设定/娜娜莉属性表格.xlsx
+++ b/data/人物设定/娜娜莉属性表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/eraMyGame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/MYGAME/data/人物设定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649CD4A9-2C45-4353-BFD6-D7E53FA5681A}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C39CC9C5-2767-4C2C-986C-1E6E7F0CD997}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11500" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
   <sheets>
     <sheet name="人物基本属性" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,11 +412,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乳孔直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可插入直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大可插入直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,47 +567,41 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,37 +1055,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F23"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="55.75" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.45" customHeight="1">
+    <row r="3" spans="1:7" ht="41.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>45074</v>
       </c>
       <c r="E3" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -1130,668 +1133,682 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6">
+        <v>800</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6">
+        <v>300</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="6">
+        <v>500</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="19"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>200</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>130</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>110</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>120</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>100</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="14" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="12" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>0</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="12" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>0</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>58</v>
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+    <row r="39" spans="1:14">
+      <c r="A39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:14">
+      <c r="A40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>3</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>0</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>16</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="6">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="7">
-        <v>9</v>
-      </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="6">
+        <v>20</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="N40" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="12"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="12" t="s">
+    <row r="41" spans="1:14">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>3</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="7" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>12</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>15</v>
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+    <row r="43" spans="1:14">
+      <c r="A43" s="11"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>3</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>0</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>6</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="12"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+    <row r="45" spans="1:14">
+      <c r="A45" s="11"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>0</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="7" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>420</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="12"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+    <row r="47" spans="1:14">
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:14">
+      <c r="A48" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>1</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>0</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="6">
         <v>75</v>
       </c>
-      <c r="H48" s="7">
-        <v>75</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="I48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" s="6">
         <v>15</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>0</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="7" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>5</v>
       </c>
       <c r="I50" s="1"/>
@@ -1799,208 +1816,247 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="12"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>3</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>0</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H52" s="7">
-        <v>12</v>
-      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>1</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>0</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>600</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="6">
+        <v>15</v>
+      </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="12"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>-40</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="8">
         <v>0</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="4"/>
     </row>
     <row r="64" spans="1:12">
       <c r="G64" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
+  <mergeCells count="132">
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A34:F35"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B60:F61"/>
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="A58:A59"/>
@@ -2025,6 +2081,30 @@
     <mergeCell ref="E54:F55"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:F49"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B60:F61"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B14:F15"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:F51"/>
@@ -2033,72 +2113,11 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:F47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:F17"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="G20:G33"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A56:F57"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A16:F19"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="L48:L49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,329 +2164,329 @@
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2489,10 +2508,10 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
